--- a/optimization/Gurobi/Children+Adults+Elderly/0.25 fraction/compiled.xlsx
+++ b/optimization/Gurobi/Children+Adults+Elderly/0.25 fraction/compiled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Transport part</t>
   </si>
@@ -160,6 +160,18 @@
     <t>Number of clinics</t>
   </si>
   <si>
+    <t>Total shortage</t>
+  </si>
+  <si>
+    <t>Childern shortages</t>
+  </si>
+  <si>
+    <t>adults shortages</t>
+  </si>
+  <si>
+    <t>elderly shortages</t>
+  </si>
+  <si>
     <t>Total shortage cost Incurred</t>
   </si>
   <si>
@@ -199,34 +211,34 @@
     <t xml:space="preserve">1(0), 2(31298900000.0), 3(4404600000.0), </t>
   </si>
   <si>
-    <t xml:space="preserve">1(0), 2(310072.0), 3(38991.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(93241.0), 3(11927.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(195433.0), 3(38671.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(267953.0), 3(27752.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(347804.0), 3(58795.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(390093.0), 3(48689.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(355018.0), 3(42144.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(194796.0), 3(34050.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(409791.0), 3(76421.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(625978.0), 3(88092.0), </t>
+    <t xml:space="preserve">1(0.0), 2(80.64710778193924), 3(69.42841880341881), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(97.29631020953335), 3(84.95014245014245), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(56.26756264971439), 3(76.29221906565657), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(96.26408288785423), 3(68.34121355397951), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(85.6035993462894), 3(99.18184885290148), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(93.87435386525745), 3(80.36079751766026), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(95.11584790809327), 3(77.28873239436619), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(83.46873714520774), 3(99.98238195912614), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(76.09012923351159), 3(97.07952235772358), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(89.74131801082667), 3(86.52758132956153), </t>
   </si>
   <si>
     <t xml:space="preserve">1(0.0), 2(1550360000.0), 3(194955000.0), </t>
@@ -626,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:10">
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
@@ -956,8 +968,20 @@
       <c r="F34" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -967,17 +991,29 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35">
+        <v>349063</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>80.64710778193924</v>
+      </c>
+      <c r="G35">
+        <v>69.42841880341881</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -987,17 +1023,29 @@
       <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="D36">
+        <v>105168</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>97.29631020953335</v>
+      </c>
+      <c r="G36">
+        <v>84.95014245014245</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1007,17 +1055,29 @@
       <c r="C37">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="D37">
+        <v>234104</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>56.26756264971439</v>
+      </c>
+      <c r="G37">
+        <v>76.29221906565657</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1027,17 +1087,29 @@
       <c r="C38">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="D38">
+        <v>295705</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>96.26408288785423</v>
+      </c>
+      <c r="G38">
+        <v>68.34121355397951</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1047,17 +1119,29 @@
       <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="D39">
+        <v>406599</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>85.6035993462894</v>
+      </c>
+      <c r="G39">
+        <v>99.18184885290148</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -1067,17 +1151,29 @@
       <c r="C40">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="D40">
+        <v>438782</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>93.87435386525745</v>
+      </c>
+      <c r="G40">
+        <v>80.36079751766026</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1087,17 +1183,29 @@
       <c r="C41">
         <v>16</v>
       </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="D41">
+        <v>397162</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>95.11584790809327</v>
+      </c>
+      <c r="G41">
+        <v>77.28873239436619</v>
+      </c>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -1107,17 +1215,29 @@
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="D42">
+        <v>228846</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>83.46873714520774</v>
+      </c>
+      <c r="G42">
+        <v>99.98238195912614</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -1127,17 +1247,29 @@
       <c r="C43">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="D43">
+        <v>486212</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>76.09012923351159</v>
+      </c>
+      <c r="G43">
+        <v>97.07952235772358</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -1147,19 +1279,31 @@
       <c r="C44">
         <v>28</v>
       </c>
-      <c r="D44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="D44">
+        <v>714070</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>89.74131801082667</v>
+      </c>
+      <c r="G44">
+        <v>86.52758132956153</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1167,13 +1311,13 @@
         <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5">
